--- a/PM_Weekly Report_v1.0.xlsx
+++ b/PM_Weekly Report_v1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28712"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duong\Giang day\Bai giang\final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Documents\GitHub\BaoCaoXayDungPhatTrienPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{B37A1069-2D29-4AFA-8110-4C2B50B7EBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56CCC768-05D5-4E2A-A571-96CF2078B749}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6D0499-CFB7-4394-B87D-9555CC2795BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3090" windowWidth="24855" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Báo cáo tuần" sheetId="1" r:id="rId1"/>
@@ -505,9 +505,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -545,9 +545,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -580,9 +580,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -615,9 +632,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -798,23 +832,23 @@
       <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="5.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="5.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="1" customWidth="1"/>
-    <col min="11" max="15" width="5.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" style="1" customWidth="1"/>
-    <col min="17" max="19" width="5.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.75" style="1" customWidth="1"/>
+    <col min="2" max="3" width="5.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="5.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="33.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.125" style="1" customWidth="1"/>
+    <col min="11" max="15" width="5.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="7.125" style="1" customWidth="1"/>
+    <col min="17" max="19" width="5.75" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="27.6">
+    <row r="1" spans="2:16" ht="27">
       <c r="B1" s="40" t="s">
         <v>0</v>
       </c>
@@ -1179,7 +1213,7 @@
       <c r="O20" s="24"/>
       <c r="P20" s="26"/>
     </row>
-    <row r="21" spans="2:16" ht="15">
+    <row r="21" spans="2:16">
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
@@ -1423,18 +1457,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1582,13 +1616,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EFFA870-E644-45E0-B463-D5BF2B84B57C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C013D7B-63AA-49A3-A8C8-71B97D126DD8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C013D7B-63AA-49A3-A8C8-71B97D126DD8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EFFA870-E644-45E0-B463-D5BF2B84B57C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD98F339-7327-4DC6-9D8D-42A30CC43931}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD98F339-7327-4DC6-9D8D-42A30CC43931}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="10910068-c2e0-4c09-9eec-e2e117851a6e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>